--- a/Income/PHM_inc.xlsx
+++ b/Income/PHM_inc.xlsx
@@ -2065,13 +2065,13 @@
         <v>0.25</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.2445</v>
+        <v>0.2446</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.2395</v>
+        <v>0.2396</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.2352</v>
+        <v>0.2353</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0.2347</v>
@@ -2446,13 +2446,13 @@
         <v>0.1264</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.119</v>
+        <v>0.1191</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0.1084</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0992</v>
+        <v>0.0993</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.0985</v>
@@ -2573,16 +2573,16 @@
         <v>0.1589</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.1585</v>
+        <v>0.1584</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.1426</v>
+        <v>0.1425</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.1009</v>
+        <v>0.1008</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.0998</v>
+        <v>0.0997</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.0942</v>
@@ -3589,16 +3589,16 @@
         <v>0.1659</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.1597</v>
+        <v>0.1594</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.1519</v>
+        <v>0.1517</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.1392</v>
+        <v>0.139</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.1367</v>
+        <v>0.1365</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.1262</v>
@@ -3716,16 +3716,16 @@
         <v>0.1642</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.1642</v>
+        <v>0.1641</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.1488</v>
+        <v>0.1487</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.1069</v>
+        <v>0.1067</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1055</v>
+        <v>0.1054</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.0997</v>
